--- a/data/trans_orig/P36BPD08_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD08_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>414324</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>396366</v>
+        <v>396510</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>431248</v>
+        <v>430614</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8371786934353269</v>
+        <v>0.8371786934353271</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8008937910432403</v>
+        <v>0.8011845095739079</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8713756848624876</v>
+        <v>0.8700950752776163</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>829</v>
@@ -762,19 +762,19 @@
         <v>599761</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>590278</v>
+        <v>589851</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>607034</v>
+        <v>607083</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9625443044555612</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.947324661049863</v>
+        <v>0.946638805247483</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9742152550146083</v>
+        <v>0.9742948053173888</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1201</v>
@@ -783,19 +783,19 @@
         <v>1014085</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>993096</v>
+        <v>992516</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1032213</v>
+        <v>1032276</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9070489596281991</v>
+        <v>0.907048959628199</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8882753545028994</v>
+        <v>0.8877563270721184</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9232636359924091</v>
+        <v>0.9233194910957795</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>23189</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14255</v>
+        <v>13638</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37508</v>
+        <v>36483</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.046854761794451</v>
+        <v>0.04685476179445101</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02880437143302208</v>
+        <v>0.0275574952918436</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07578816491433196</v>
+        <v>0.07371810610984626</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -833,19 +833,19 @@
         <v>11004</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6067</v>
+        <v>6839</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17743</v>
+        <v>18946</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01766057351314555</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00973754517570684</v>
+        <v>0.01097547899449508</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02847604247108901</v>
+        <v>0.03040577442926094</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -854,19 +854,19 @@
         <v>34193</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24563</v>
+        <v>23007</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51055</v>
+        <v>49522</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03058390657427097</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02197072898112378</v>
+        <v>0.02057843249586814</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04566602383955478</v>
+        <v>0.04429488305998676</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>57392</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44450</v>
+        <v>43640</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>72779</v>
+        <v>72064</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1159665447702219</v>
+        <v>0.115966544770222</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08981598004050111</v>
+        <v>0.088179132407066</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.147057425212267</v>
+        <v>0.1456119302572275</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -904,19 +904,19 @@
         <v>12334</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7034</v>
+        <v>7267</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20558</v>
+        <v>20808</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01979512203129325</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01128868396687633</v>
+        <v>0.01166199502807133</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03299250525536752</v>
+        <v>0.03339399229109278</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>75</v>
@@ -925,19 +925,19 @@
         <v>69727</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>54548</v>
+        <v>56057</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>85842</v>
+        <v>88166</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06236713379752998</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04879033632728332</v>
+        <v>0.05013984063134946</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07678135545547904</v>
+        <v>0.07885983968714505</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>806061</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>781724</v>
+        <v>781726</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>829950</v>
+        <v>831817</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8405584780079052</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8151798618341436</v>
+        <v>0.8151823995494446</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.865470232804801</v>
+        <v>0.8674162564299047</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1554</v>
@@ -1050,19 +1050,19 @@
         <v>1079956</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1069176</v>
+        <v>1068994</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1089145</v>
+        <v>1088465</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9689458598090174</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9592741471248033</v>
+        <v>0.9591106088256616</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9771903322396055</v>
+        <v>0.9765801933600196</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2301</v>
@@ -1071,19 +1071,19 @@
         <v>1886017</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1856954</v>
+        <v>1856898</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1912728</v>
+        <v>1910430</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9095696199141871</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8955535097025932</v>
+        <v>0.8955264988075433</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9224512707349966</v>
+        <v>0.9213431537405302</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>54855</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>40018</v>
+        <v>40291</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>75650</v>
+        <v>78610</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05720262296028031</v>
+        <v>0.05720262296028032</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0417302225639217</v>
+        <v>0.04201565449834419</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07888770400587797</v>
+        <v>0.08197456444275548</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>24</v>
@@ -1121,19 +1121,19 @@
         <v>15802</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10079</v>
+        <v>10334</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23103</v>
+        <v>24452</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01417750818280351</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009043078923138744</v>
+        <v>0.009271813138463541</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02072834382562272</v>
+        <v>0.02193897944156537</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>75</v>
@@ -1142,19 +1142,19 @@
         <v>70657</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>54143</v>
+        <v>54856</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>91440</v>
+        <v>93380</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0340756438149139</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02611175267400955</v>
+        <v>0.02645533909547514</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04409865493342369</v>
+        <v>0.04503431465015947</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>98043</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80064</v>
+        <v>79762</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116327</v>
+        <v>117097</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1022388990318145</v>
+        <v>0.1022388990318146</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08349068827673546</v>
+        <v>0.08317570889734033</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1213053173365009</v>
+        <v>0.1221086587257757</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1192,19 +1192,19 @@
         <v>18810</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12719</v>
+        <v>12864</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27021</v>
+        <v>27841</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0168766320081791</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01141127212117111</v>
+        <v>0.01154145854474235</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02424349875171586</v>
+        <v>0.0249787793831619</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>138</v>
@@ -1213,19 +1213,19 @@
         <v>116853</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>97294</v>
+        <v>98574</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>137858</v>
+        <v>137213</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05635473627089905</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04692180263145572</v>
+        <v>0.04753951828605443</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06648495194600129</v>
+        <v>0.06617372443212993</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>914744</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>892582</v>
+        <v>890276</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>934710</v>
+        <v>932825</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8741164415341</v>
+        <v>0.8741164415340998</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8529381832705342</v>
+        <v>0.8507343380376543</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8931956252585146</v>
+        <v>0.8913935847713453</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1454</v>
@@ -1338,19 +1338,19 @@
         <v>1006855</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>995666</v>
+        <v>996214</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1016078</v>
+        <v>1016567</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9610680082465559</v>
+        <v>0.9610680082465561</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9503880562678872</v>
+        <v>0.950910813675761</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9698717739390124</v>
+        <v>0.9703384566451644</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2334</v>
@@ -1359,19 +1359,19 @@
         <v>1921600</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1896115</v>
+        <v>1895178</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1944138</v>
+        <v>1944870</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9176163564448593</v>
+        <v>0.9176163564448594</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9054467994409702</v>
+        <v>0.9049991629183987</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9283792344248571</v>
+        <v>0.928728449547602</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>48623</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35985</v>
+        <v>36557</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63989</v>
+        <v>63953</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04646383877806638</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03438720087886675</v>
+        <v>0.03493317622989681</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06114685444818188</v>
+        <v>0.06111213680049593</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -1409,19 +1409,19 @@
         <v>20583</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14132</v>
+        <v>13994</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29435</v>
+        <v>29846</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0196470844497836</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01348928831977025</v>
+        <v>0.0133574652372917</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02809636402233831</v>
+        <v>0.02848902411185671</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>83</v>
@@ -1430,19 +1430,19 @@
         <v>69207</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53130</v>
+        <v>54668</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85086</v>
+        <v>88293</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03304801919518667</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02537122725948881</v>
+        <v>0.02610534977136925</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04063105272342968</v>
+        <v>0.04216243569931466</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>83111</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>68255</v>
+        <v>67878</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101685</v>
+        <v>101128</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0794197196878338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06522368566014745</v>
+        <v>0.06486322281707577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09716867466008632</v>
+        <v>0.0966364525143583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -1480,19 +1480,19 @@
         <v>20204</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13784</v>
+        <v>13403</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28725</v>
+        <v>28753</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.01928490730366031</v>
+        <v>0.01928490730366032</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01315719896783845</v>
+        <v>0.01279316939445277</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02741871580519739</v>
+        <v>0.02744576576591828</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>128</v>
@@ -1501,19 +1501,19 @@
         <v>103315</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>85550</v>
+        <v>86711</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>121811</v>
+        <v>123130</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04933562435995401</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0408522886323899</v>
+        <v>0.04140688858207776</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05816815264486228</v>
+        <v>0.05879773645090494</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>890411</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>871848</v>
+        <v>872453</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>906179</v>
+        <v>907928</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9141242111735324</v>
+        <v>0.9141242111735323</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8950665836109918</v>
+        <v>0.8956875344383465</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9303117261279926</v>
+        <v>0.9321080220065981</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1267</v>
@@ -1626,19 +1626,19 @@
         <v>872627</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>861618</v>
+        <v>861724</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>882104</v>
+        <v>881718</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9619066130605552</v>
+        <v>0.9619066130605551</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9497708467141709</v>
+        <v>0.9498874031964994</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9723533570032414</v>
+        <v>0.9719274224964766</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2114</v>
@@ -1647,19 +1647,19 @@
         <v>1763038</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1742400</v>
+        <v>1743373</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1783460</v>
+        <v>1781586</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9371661285159771</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9261958114434063</v>
+        <v>0.9267130085625479</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9480217517496136</v>
+        <v>0.9470254438034975</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>39107</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27620</v>
+        <v>27561</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54002</v>
+        <v>54375</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04014798591149505</v>
+        <v>0.04014798591149504</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02835554104526024</v>
+        <v>0.02829527496531572</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05544005295583115</v>
+        <v>0.05582314902441037</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>35</v>
@@ -1697,19 +1697,19 @@
         <v>21968</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15128</v>
+        <v>15554</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29967</v>
+        <v>30610</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.0242151606886395</v>
+        <v>0.02421516068863949</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01667584200825216</v>
+        <v>0.01714573156686518</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03303343828246546</v>
+        <v>0.03374165310351007</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>76</v>
@@ -1718,19 +1718,19 @@
         <v>61074</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>48125</v>
+        <v>46954</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>77426</v>
+        <v>77134</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03246476306546302</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02558146145814582</v>
+        <v>0.0249587653555208</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04115685239187503</v>
+        <v>0.04100183741917546</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>44542</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>33735</v>
+        <v>34563</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>57563</v>
+        <v>58378</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04572780291497267</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03463355839820052</v>
+        <v>0.03548330223068316</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05909618523054121</v>
+        <v>0.05993270384391519</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -1768,19 +1768,19 @@
         <v>12590</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7091</v>
+        <v>7118</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21052</v>
+        <v>22477</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01387822625080535</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007816769546411693</v>
+        <v>0.007845938854305576</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0232063202922764</v>
+        <v>0.02477651020918066</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>74</v>
@@ -1789,19 +1789,19 @@
         <v>57132</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>44901</v>
+        <v>44332</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>72744</v>
+        <v>72266</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03036910841855986</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0238679584936791</v>
+        <v>0.02356526443982265</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03866792284687679</v>
+        <v>0.03841388644669751</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>3025540</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2980209</v>
+        <v>2981930</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3064939</v>
+        <v>3061960</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8708089761044663</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8577615771428591</v>
+        <v>0.8582570505790109</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8821486616965468</v>
+        <v>0.8812911052103757</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5104</v>
@@ -1914,19 +1914,19 @@
         <v>3559199</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3540077</v>
+        <v>3536472</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3578818</v>
+        <v>3576939</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9639010666360482</v>
+        <v>0.9639010666360486</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9587225906144129</v>
+        <v>0.9577462338803796</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9692142772777019</v>
+        <v>0.9687055440006211</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7950</v>
@@ -1935,19 +1935,19 @@
         <v>6584740</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6538562</v>
+        <v>6535483</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6629448</v>
+        <v>6628807</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9187714384660181</v>
+        <v>0.9187714384660182</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9123281958475</v>
+        <v>0.9118984852215604</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.925009584313869</v>
+        <v>0.9249201110517015</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>165774</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>140337</v>
+        <v>140791</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>198910</v>
+        <v>198577</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04771283394157952</v>
+        <v>0.04771283394157953</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04039169414738169</v>
+        <v>0.04052249076960595</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05725007565214042</v>
+        <v>0.0571543368662559</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>105</v>
@@ -1985,19 +1985,19 @@
         <v>69357</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>56225</v>
+        <v>56927</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>82703</v>
+        <v>82612</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01878319092677996</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01522694354202436</v>
+        <v>0.01541689454406739</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02239759770000425</v>
+        <v>0.02237304926676268</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>269</v>
@@ -2006,19 +2006,19 @@
         <v>235130</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>205880</v>
+        <v>205315</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>271021</v>
+        <v>266856</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.03280784140883875</v>
+        <v>0.03280784140883874</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02872650680166642</v>
+        <v>0.02864769554984803</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03781572391814201</v>
+        <v>0.03723449330096452</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>283088</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>252182</v>
+        <v>253908</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>316737</v>
+        <v>316513</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08147818995395424</v>
+        <v>0.08147818995395426</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0725829302427239</v>
+        <v>0.07307970344187176</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09116313395766992</v>
+        <v>0.09109857020231867</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>91</v>
@@ -2056,19 +2056,19 @@
         <v>63938</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>50510</v>
+        <v>52519</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78805</v>
+        <v>79383</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.01731574243717168</v>
+        <v>0.01731574243717169</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01367898189598114</v>
+        <v>0.01422321469948232</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02134192768181115</v>
+        <v>0.02149846346205364</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>415</v>
@@ -2077,19 +2077,19 @@
         <v>347026</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>311837</v>
+        <v>312348</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>380879</v>
+        <v>383078</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04842072012514301</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04351077257696614</v>
+        <v>0.04358206336199227</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05314418834145499</v>
+        <v>0.05345106770270566</v>
       </c>
     </row>
     <row r="23">
